--- a/uploads/organisation.xlsx
+++ b/uploads/organisation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibrahim Nawab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subhan Khan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Organisation  Type</t>
   </si>
@@ -101,34 +101,19 @@
     <t>karachi</t>
   </si>
   <si>
+    <t>New NHS</t>
+  </si>
+  <si>
+    <t>Gul Badin</t>
+  </si>
+  <si>
+    <t>Kibs 456/sA-127 karaci</t>
+  </si>
+  <si>
     <t>NHS Hospital</t>
   </si>
   <si>
     <t>GP Practice</t>
-  </si>
-  <si>
-    <t>Opticians</t>
-  </si>
-  <si>
-    <t>Dental Practice</t>
-  </si>
-  <si>
-    <t>Community Hospital</t>
-  </si>
-  <si>
-    <t>INDUS</t>
-  </si>
-  <si>
-    <t>JINA</t>
-  </si>
-  <si>
-    <t>LOPS</t>
-  </si>
-  <si>
-    <t>TYU</t>
-  </si>
-  <si>
-    <t>LOPW</t>
   </si>
 </sst>
 </file>
@@ -465,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
@@ -511,10 +496,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>12033544</v>
@@ -537,139 +522,29 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" s="1">
-        <v>658955666</v>
+        <v>33332</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>8926</v>
+        <v>8923</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="1">
-        <v>78504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45630</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1">
-        <v>8927</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>78505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3232365</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>8928</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="1">
-        <v>78506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1">
-        <v>36565989</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1">
-        <v>8929</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1">
-        <v>78507</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+        <v>78501</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/uploads/organisation.xlsx
+++ b/uploads/organisation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Subhan Khan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Hospital Software system\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{497B0707-30A4-48C9-9E0F-3A36032B6A39}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="150">
   <si>
     <t>Organisation  Type</t>
   </si>
@@ -92,35 +93,437 @@
     </r>
   </si>
   <si>
-    <t>Mailr</t>
-  </si>
-  <si>
-    <t>Kibs 456/sd</t>
-  </si>
-  <si>
-    <t>karachi</t>
-  </si>
-  <si>
-    <t>New NHS</t>
-  </si>
-  <si>
-    <t>Gul Badin</t>
-  </si>
-  <si>
-    <t>Kibs 456/sA-127 karaci</t>
-  </si>
-  <si>
     <t>NHS Hospital</t>
   </si>
   <si>
     <t>GP Practice</t>
+  </si>
+  <si>
+    <t>Dental Practice</t>
+  </si>
+  <si>
+    <t>Community Hospital</t>
+  </si>
+  <si>
+    <t>P84016</t>
+  </si>
+  <si>
+    <t>P84022</t>
+  </si>
+  <si>
+    <t>P84027</t>
+  </si>
+  <si>
+    <t>P84053</t>
+  </si>
+  <si>
+    <t>P84682</t>
+  </si>
+  <si>
+    <t>Y04086</t>
+  </si>
+  <si>
+    <t>Y05815</t>
+  </si>
+  <si>
+    <t>LEVENSHULME MEDICAL PRACTICE</t>
+  </si>
+  <si>
+    <t>KINGSWAY MEDICAL PRACTICE</t>
+  </si>
+  <si>
+    <t>WEST POINT MEDICAL CENTRE</t>
+  </si>
+  <si>
+    <t>ASHCROFT SURGERY</t>
+  </si>
+  <si>
+    <t>BURNAGE HEALTHCARE PRACTICE</t>
+  </si>
+  <si>
+    <t>MFT ADULT COMMUNITY SERVICES</t>
+  </si>
+  <si>
+    <t>CMFT CONTINENCE PRESCRIBING SERVICE</t>
+  </si>
+  <si>
+    <t>DUNSTABLE ST</t>
+  </si>
+  <si>
+    <t>720 BURNAGE LANE</t>
+  </si>
+  <si>
+    <t>167-169 SLADE LANE</t>
+  </si>
+  <si>
+    <t>803 STOCKPORT ROAD</t>
+  </si>
+  <si>
+    <t>PRIMARY CARE RESOURCE CTR</t>
+  </si>
+  <si>
+    <t>DUNSTABLE STREET</t>
+  </si>
+  <si>
+    <t>LEVENSHULME</t>
+  </si>
+  <si>
+    <t>BURNAGE</t>
+  </si>
+  <si>
+    <t>BURNAGE LANE</t>
+  </si>
+  <si>
+    <t>MANCHESTER</t>
+  </si>
+  <si>
+    <t>M19 3BX</t>
+  </si>
+  <si>
+    <t>M19 1UG</t>
+  </si>
+  <si>
+    <t>M19 2AF</t>
+  </si>
+  <si>
+    <t>M19 3BS</t>
+  </si>
+  <si>
+    <t>M19 1EW</t>
+  </si>
+  <si>
+    <t>P84639</t>
+  </si>
+  <si>
+    <t>FALLOWFIELD MEDICAL CENTRE</t>
+  </si>
+  <si>
+    <t>75 LADYBARN LANE</t>
+  </si>
+  <si>
+    <t>FALLOWFIELD</t>
+  </si>
+  <si>
+    <t>M14 6YL</t>
+  </si>
+  <si>
+    <t>0161 224 4503</t>
+  </si>
+  <si>
+    <t>0161 2254033</t>
+  </si>
+  <si>
+    <t>0161 8049899</t>
+  </si>
+  <si>
+    <t>0161 2485100</t>
+  </si>
+  <si>
+    <t>0161 2241329</t>
+  </si>
+  <si>
+    <t>0161 4321404</t>
+  </si>
+  <si>
+    <t>0161 8612327</t>
+  </si>
+  <si>
+    <t>RBV</t>
+  </si>
+  <si>
+    <t>RM2</t>
+  </si>
+  <si>
+    <t>RM3</t>
+  </si>
+  <si>
+    <t>RW3</t>
+  </si>
+  <si>
+    <t>RW6</t>
+  </si>
+  <si>
+    <t>RXV</t>
+  </si>
+  <si>
+    <t>THE CHRISTIE NHS FOUNDATION TRUST</t>
+  </si>
+  <si>
+    <t>UNIVERSITY HOSPITAL OF SOUTH MANCHESTER NHS FOUNDATION TRUST</t>
+  </si>
+  <si>
+    <t>SALFORD ROYAL NHS FOUNDATION TRUST</t>
+  </si>
+  <si>
+    <t>CENTRAL MANCHESTER UNIVERSITY HOSPITALS NHS FOUNDATION TRUST</t>
+  </si>
+  <si>
+    <t>PENNINE ACUTE HOSPITALS NHS TRUST</t>
+  </si>
+  <si>
+    <t>GREATER MANCHESTER WEST MENTAL HEALTH NHS FOUNDATION TRUST</t>
+  </si>
+  <si>
+    <t>550 WILMSLOW ROAD</t>
+  </si>
+  <si>
+    <t>WYTHENSHAWE HOSPITAL</t>
+  </si>
+  <si>
+    <t>SALFORD ROYAL</t>
+  </si>
+  <si>
+    <t>PRESTWICH HOSPITAL</t>
+  </si>
+  <si>
+    <t>CHRISTIE HOSPITAL</t>
+  </si>
+  <si>
+    <t>MANCHESTER ROYAL INFIRMARY</t>
+  </si>
+  <si>
+    <t>NORTH MANCHESTER GENERAL HOSPITAL</t>
+  </si>
+  <si>
+    <t>SOUTHMOOR ROAD</t>
+  </si>
+  <si>
+    <t>STOTT LANE</t>
+  </si>
+  <si>
+    <t>OXFORD ROAD</t>
+  </si>
+  <si>
+    <t>DELAUNAYS ROAD</t>
+  </si>
+  <si>
+    <t>BURY NEW ROAD</t>
+  </si>
+  <si>
+    <t>WITHINGTON</t>
+  </si>
+  <si>
+    <t>WYTHENSHAWE</t>
+  </si>
+  <si>
+    <t>SALFORD</t>
+  </si>
+  <si>
+    <t>CRUMPSALL</t>
+  </si>
+  <si>
+    <t>PRESTWICH</t>
+  </si>
+  <si>
+    <t>M20 4BX</t>
+  </si>
+  <si>
+    <t>M23 9LT</t>
+  </si>
+  <si>
+    <t>M6 8HD</t>
+  </si>
+  <si>
+    <t>M13 9WL</t>
+  </si>
+  <si>
+    <t>M8 5RB</t>
+  </si>
+  <si>
+    <t>M25 3BL</t>
+  </si>
+  <si>
+    <t>V05472</t>
+  </si>
+  <si>
+    <t>V05606</t>
+  </si>
+  <si>
+    <t>V05607</t>
+  </si>
+  <si>
+    <t>V06400</t>
+  </si>
+  <si>
+    <t>V06401</t>
+  </si>
+  <si>
+    <t>V06406</t>
+  </si>
+  <si>
+    <t>V06410</t>
+  </si>
+  <si>
+    <t>V06413</t>
+  </si>
+  <si>
+    <t>V06416</t>
+  </si>
+  <si>
+    <t>V06422</t>
+  </si>
+  <si>
+    <t>V12430</t>
+  </si>
+  <si>
+    <t>KINGSWAY DENTAL CARE</t>
+  </si>
+  <si>
+    <t>RUSHOLME DENTAL PRACTICE</t>
+  </si>
+  <si>
+    <t>FALLOWFIELD DENTAL CENTRE</t>
+  </si>
+  <si>
+    <t>DENTAL SURGERY</t>
+  </si>
+  <si>
+    <t>FAMILY DENTAL PRACTICE</t>
+  </si>
+  <si>
+    <t>WESTPOINT DENTAL CENTRE</t>
+  </si>
+  <si>
+    <t>OCEAN DENTAL</t>
+  </si>
+  <si>
+    <t>7 LANE END ROAD</t>
+  </si>
+  <si>
+    <t>300 GREAT WESTERN STREET</t>
+  </si>
+  <si>
+    <t>306 PLATT LANE</t>
+  </si>
+  <si>
+    <t>73 EAST ROAD</t>
+  </si>
+  <si>
+    <t>773 STOCKPORT ROAD</t>
+  </si>
+  <si>
+    <t>177A PRINCESS ROAD</t>
+  </si>
+  <si>
+    <t>283 SLADE LANE</t>
+  </si>
+  <si>
+    <t>52 BROOM LANE</t>
+  </si>
+  <si>
+    <t>566 STOCKPORT ROAD</t>
+  </si>
+  <si>
+    <t>160 SLADE LANE</t>
+  </si>
+  <si>
+    <t>169 MAULDETH ROAD</t>
+  </si>
+  <si>
+    <t>RUSHOLME</t>
+  </si>
+  <si>
+    <t>LONGSIGHT</t>
+  </si>
+  <si>
+    <t>LEVENSULME</t>
+  </si>
+  <si>
+    <t>M19 1WA</t>
+  </si>
+  <si>
+    <t>M14 4LP</t>
+  </si>
+  <si>
+    <t>M14 7BZ</t>
+  </si>
+  <si>
+    <t>M12 5QY</t>
+  </si>
+  <si>
+    <t>M19 3DL</t>
+  </si>
+  <si>
+    <t>M14 4RL</t>
+  </si>
+  <si>
+    <t>M19 2HR</t>
+  </si>
+  <si>
+    <t>M19 2TG</t>
+  </si>
+  <si>
+    <t>M12 4JJ</t>
+  </si>
+  <si>
+    <t>M19 2AQ</t>
+  </si>
+  <si>
+    <t>M14 6SG</t>
+  </si>
+  <si>
+    <t>0161 446 3000</t>
+  </si>
+  <si>
+    <t>0161 945 8203</t>
+  </si>
+  <si>
+    <t>0161 789 7373</t>
+  </si>
+  <si>
+    <t>0300 330 9444</t>
+  </si>
+  <si>
+    <t>0161 778 2233</t>
+  </si>
+  <si>
+    <t>0161 773 9121</t>
+  </si>
+  <si>
+    <t>0161 432 8741</t>
+  </si>
+  <si>
+    <t>0161 226 2548</t>
+  </si>
+  <si>
+    <t>0161 224 2532</t>
+  </si>
+  <si>
+    <t>0161 224 5875</t>
+  </si>
+  <si>
+    <t>0161 225 1589</t>
+  </si>
+  <si>
+    <t>0161 226 8432</t>
+  </si>
+  <si>
+    <t>0161 224 4345</t>
+  </si>
+  <si>
+    <t>AVALON CARE DENTAL PRACTICE</t>
+  </si>
+  <si>
+    <t>0161 432 4477</t>
+  </si>
+  <si>
+    <t>BROOM LANE DENTAL CARE</t>
+  </si>
+  <si>
+    <t>0161 225 6944</t>
+  </si>
+  <si>
+    <t>0161 224 3610</t>
+  </si>
+  <si>
+    <t>0161 224 7135</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +547,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,11 +579,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,19 +864,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
@@ -496,58 +911,675 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1">
-        <v>12033544</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8922</v>
-      </c>
-      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1">
-        <v>78500</v>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>33332</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1">
-        <v>8923</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="1">
-        <v>78501</v>
+      <c r="B16" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" display="https://www.google.co.uk/search?q=THE+CHRISTIE+NHS+FOUNDATION+TRUST&amp;sxsrf=ALeKk001DGpPW-v54HTu9q9e7EkSSE9tfw%3A1619364446005&amp;ei=XYqFYIP4PLHoxgOCzK3YCg&amp;oq=THE+CHRISTIE+NHS+FOUNDATION+TRUST&amp;gs_lcp=Cgdnd3Mtd2l6EAMyCwguEMcBEK8BEJMCMgIIADICCAAyAggAMgIIADICCAAyAggAMgUIABDJAzICCAAyAggAUI7ZBliO2QZgqN0GaABwAngAgAG_AYgBkgKSAQMxLjGYAQCgAQKgAQGqAQdnd3Mtd2l6wAEB&amp;sclient=gws-wiz&amp;ved=0ahUKEwjDmsPU2pnwAhUxtHEKHQJmC6sQ4dUDCA4&amp;uact=5" xr:uid="{0AD839D6-BF97-4B24-877A-ABE1A6237D28}"/>
+    <hyperlink ref="C11" r:id="rId2" display="https://www.google.co.uk/search?q=UNIVERSITY+HOSPITAL+OF+SOUTH+MANCHESTER+NHS+FOUNDATION+TRUST&amp;sxsrf=ALeKk00xm9ExwE93f-8BAEa0MNgpjgkljg%3A1619364671957&amp;ei=P4uFYNeFOqTIxgPZupmwAg&amp;oq=UNIVERSITY+HOSPITAL+OF+SOUTH+MANCHESTER+NHS+FOUNDATION+TRUST&amp;gs_lcp=Cgdnd3Mtd2l6EAMyBAgjECcyAggAMgYIABAWEB4yBggAEBYQHjIGCAAQFhAeMgYIABAWEB5QzNQBWMzUAWC02AFoAHACeACAAZkBiAHrAZIBAzEuMZgBAKABAqABAaoBB2d3cy13aXrAAQE&amp;sclient=gws-wiz&amp;ved=0ahUKEwiXoaLA25nwAhUkpHEKHVldBiYQ4dUDCA4&amp;uact=5" xr:uid="{773C0F7E-047D-4B3F-96D8-E4833E8E8C56}"/>
+    <hyperlink ref="C12" r:id="rId3" display="https://www.google.co.uk/search?q=SALFORD+ROYAL+NHS+FOUNDATION+TRUST+TRUST&amp;sxsrf=ALeKk02-8xL3OvGLZS1fAeaTu9Bo6ie2ow%3A1619364700961&amp;ei=XIuFYNeUOuXlxgOxt6OwBg&amp;oq=SALFORD+ROYAL+NHS+FOUNDATION+TRUST+TRUST&amp;gs_lcp=Cgdnd3Mtd2l6EANQk4MBWJODAWDIhwFoAHACeACAAbIBiAGCApIBAzEuMZgBAKABAqABAaoBB2d3cy13aXrAAQE&amp;sclient=gws-wiz&amp;ved=0ahUKEwjXsozO25nwAhXlsnEKHbHbCGYQ4dUDCA4&amp;uact=5" xr:uid="{C7115E56-E851-4FC5-B6DC-15CEC9AF26FF}"/>
+    <hyperlink ref="C13" r:id="rId4" display="https://www.google.co.uk/search?q=central%20manchester%20university%20hospitals%20nhs%20foundation%20trust%20contact%20number&amp;sxsrf=ALeKk01fV9IRtRG1iUmy-XExEdYTSism7w:1619364764753&amp;ei=gYuFYP--OOih1fAPpqOIQA&amp;oq=CENTRAL+MANCHESTER+UNIVERSITY+HOSPITALS+NHS+FOUNDATION+co+TRUST&amp;gs_lcp=Cgdnd3Mtd2l6EAEYADIICAAQCBAHEB46BwgjELADECc6BwgAEEcQsAM6BAgjECc6AggAOgQIABAeOgYIABAFEB46BggAEAgQHlCUugFYm7wBYPrHAWgBcAJ4AIABUogBmwKSAQE0mAEAoAEBqgEHZ3dzLXdpesgBCcABAQ&amp;sclient=gws-wiz&amp;tbs=lf:1,lf_ui:2&amp;tbm=lcl&amp;rflfq=1&amp;num=10&amp;rldimm=13555154252434210899&amp;lqi=CktjZW50cmFsIG1hbmNoZXN0ZXIgdW5pdmVyc2l0eSBob3NwaXRhbHMgbmhzIGZvdW5kYXRpb24gdHJ1c3QgY29udGFjdCBudW1iZXIiAhABSP-wtICisICACFqJAQoxY2VudHJhbCB1bml2ZXJzaXR5IGhvc3BpdGFscyBuaHMgZm91bmRhdGlvbiB0cnVzdBAAEAIQAxAEEAUQBhgBGAIYAxgEGAUYBiI8Y2VudHJhbCBtYW5jaGVzdGVyIHVuaXZlcnNpdHkgaG9zcGl0YWxzIG5ocyBmb3VuZGF0aW9uIHRydXN0kgEIaG9zcGl0YWyqAUQQASpAIjxjZW50cmFsIG1hbmNoZXN0ZXIgdW5pdmVyc2l0eSBob3NwaXRhbHMgbmhzIGZvdW5kYXRpb24gdHJ1c3QoAA&amp;ved=2ahUKEwiV-cHs25nwAhW2ZhUIHcR0BB8QvS4wBXoECAQQVQ&amp;rlst=f" xr:uid="{B93B982E-9814-43EF-A51B-52642E5D414D}"/>
+    <hyperlink ref="C15" r:id="rId5" display="https://www.google.co.uk/search?q=GREATER+MANCHESTER+WEST+MENTAL+HEALTH+NHS+FOUNDATION+TRUST+contact+number&amp;tbm=lcl&amp;sxsrf=ALeKk03ibetoCE3Z_Unp37eYByPOqm35gw%3A1619364813449&amp;ei=zYuFYO78GqbT1fAPrdqa0Ao&amp;oq=GREATER+MANCHESTER+WEST+MENTAL+HEALTH+NHS+FOUNDATION+TRUST+contact+number&amp;gs_l=psy-ab.3...32937.32937.0.33577.1.1.0.0.0.0.92.92.1.1.0....0...1.1.64.psy-ab..0.0.0....0.0pM9zY7u7NU" xr:uid="{9B6CADEA-7B1F-4E7E-A5E1-B1FEA87F3F84}"/>
+    <hyperlink ref="C16" r:id="rId6" display="https://www.google.co.uk/search?q=KINGSWAY+DENTAL+CARE+contact+number&amp;tbm=lcl&amp;sxsrf=ALeKk02fTJ97YlTSdP_u05mmMhfHtX6-Vw%3A1619364847964&amp;ei=74uFYN6uOq6r1fAP0eye4AQ&amp;oq=KINGSWAY+DENTAL+CARE+contact+number&amp;gs_l=psy-ab.3...45891.54733.0.55879.59.34.0.0.0.0.135.3205.23j11.34.0....0...1.1.64.psy-ab..44.10.944...33i10k1j0i13k1j0i13i5i30k1j0i8i13i30k1j0i30k1j0i7i30k1j0i8i30k1.0.7dh33qldxyo" xr:uid="{EBF3F939-BD4A-4CBE-A387-49D1F622A628}"/>
+    <hyperlink ref="C17" r:id="rId7" display="https://www.google.co.uk/search?q=RUSHOLME+DENTAL+PRACTICE+contact+number&amp;tbm=lcl&amp;sxsrf=ALeKk01hYdzA2_OZz-xKpwYIjUVZycbf5Q%3A1619364904928&amp;ei=KIyFYMCYOKjT1fAPmL2WkAg&amp;oq=RUSHOLME+DENTAL+PRACTICE+contact+number&amp;gs_l=psy-ab.3...15849.18000.0.18858.21.11.0.0.0.0.120.968.9j2.11.0....0...1.1.64.psy-ab..16.2.210...0i7i30k1j0i433i67k1.0.X42Iep2MD7I" xr:uid="{0D14FFA0-B0F8-4B3C-9D36-A3FC26A9BE75}"/>
+    <hyperlink ref="C18" r:id="rId8" display="https://www.google.co.uk/search?q=FALLOWFIELD+DENTAL+CENTRE+contact+number&amp;tbm=lcl&amp;sxsrf=ALeKk00ai26nE8U_iZ-jFhsJAjFgq6a0rw%3A1619364924954&amp;ei=PIyFYIjjObzP1fAPsLOR8AY&amp;oq=FALLOWFIELD+DENTAL+CENTRE+contact+number&amp;gs_l=psy-ab.3...14483.14483.0.15513.1.1.0.0.0.0.64.64.1.1.0....0...1.1.64.psy-ab..0.0.0....0.-zBWZE5-jm8" xr:uid="{EBB6C448-F68D-4423-B5EB-269BB0504616}"/>
+    <hyperlink ref="C19" r:id="rId9" display="https://www.google.co.uk/search?q=Dental+surgery+73+EAST+ROAD+contact+number&amp;tbm=lcl&amp;sxsrf=ALeKk02yw3MLJCgF9w5LM-FiSStFOW5syA%3A1619364941546&amp;ei=TYyFYK_oINaO1fAP-_4r&amp;oq=Dental+surgery+73+EAST+ROAD+contact+number&amp;gs_l=psy-ab.3...39973.44255.0.44583.16.16.0.0.0.0.126.1282.14j2.16.0....0...1.1.64.psy-ab..2.0.0....0.lDaQAQ-Qkw0" xr:uid="{D93AD2FE-20E2-4FEB-B930-BB7C73F62937}"/>
+    <hyperlink ref="C20" r:id="rId10" display="https://www.google.co.uk/search?q=Dental+surgery+773+STOCKPORT+ROAD+contact+number&amp;tbm=lcl&amp;sxsrf=ALeKk00FLFxiYGmPm4XeJzGVkqvy8GnZpg%3A1619364986952&amp;ei=eoyFYP25OYHSxgP_0LWIBQ&amp;oq=Dental+surgery+773+STOCKPORT+ROAD+contact+number&amp;gs_l=psy-ab.3...53611.53611.0.54343.1.1.0.0.0.0.124.124.0j1.1.0....0...1.1.64.psy-ab..0.0.0....0.8_mA9Rv5bWM" xr:uid="{14CAC2A1-B3DE-4935-9177-B9F207AD98C7}"/>
+    <hyperlink ref="C21" r:id="rId11" display="https://www.google.co.uk/search?q=Dental+surgery+177A+PRINCESS+ROAD+contact+number&amp;tbm=lcl&amp;sxsrf=ALeKk00dsKhx3QBlv_qh_FZKROwo84HpOQ%3A1619365042317&amp;ei=soyFYPX3Eo2D1fAPkpCfoAU&amp;oq=Dental+surgery+177A+PRINCESS+ROAD+contact+number&amp;gs_l=psy-ab.3...44448.44448.0.45531.1.1.0.0.0.0.114.114.0j1.1.0....0...1.1.64.psy-ab..0.0.0....0.Mo0PUDNRK74" xr:uid="{E6E5FDA3-7AD4-4584-B7EC-EAD8DCE2B48A}"/>
+    <hyperlink ref="C22" r:id="rId12" display="https://www.google.co.uk/search?q=Dental+surgery+283+SLADE+LANE+contact+number&amp;tbm=lcl&amp;sxsrf=ALeKk00ZnpaD1ga0N26_BljzVAstfOQqlw%3A1619365088897&amp;ei=4IyFYKyTNuOm1fAP6dq5uAE&amp;oq=Dental+surgery+283+SLADE+LANE+contact+number&amp;gs_l=psy-ab.3...21306.21306.0.22526.1.1.0.0.0.0.78.78.1.1.0....0...1.1.64.psy-ab..0.0.0....0.EavEDcF0Dto" xr:uid="{17B42EC7-3523-4440-B8EE-C30E8012451B}"/>
+    <hyperlink ref="C23" r:id="rId13" display="https://www.google.co.uk/search?q=Dental+surgery+52+BROOM+LANE+contact+number&amp;tbm=lcl&amp;sxsrf=ALeKk01qvj3q8EOKdgGK6HSUso7O1XQdmA%3A1619365112355&amp;ei=-IyFYM-UFaGEmweT_pvIBQ&amp;oq=Dental+surgery+52+BROOM+LANE+contact+number&amp;gs_l=psy-ab.3...83207.83207.0.84827.1.1.0.0.0.0.108.108.0j1.1.0....0...1.1.64.psy-ab..0.0.0....0.IEohejuZF5A" xr:uid="{2B54AC22-47AB-4A90-A3E6-C248FA7FC259}"/>
+    <hyperlink ref="C24" r:id="rId14" display="https://www.google.co.uk/search?q=Dental+surgery+566+STOCKPORT+ROAD+contact+number&amp;tbm=lcl&amp;sxsrf=ALeKk02X8jX5ZAcBp9Uuke4n3eW68FRjLA%3A1619365198134&amp;ei=To2FYOTCB5mo1fAPkvSViAU&amp;oq=Dental+surgery+566+STOCKPORT+ROAD+contact+number&amp;gs_l=psy-ab.3...34037.34037.0.34719.1.1.0.0.0.0.103.103.0j1.1.0....0...1.1.64.psy-ab..0.0.0....0.Cix17auVDkU" xr:uid="{0606EA71-327A-4FE0-A0E5-4A627610634A}"/>
+    <hyperlink ref="C25" r:id="rId15" display="https://www.google.co.uk/search?q=Dental+surgery+WESTPOINT+DENTAL+CENTRE+contact+number&amp;tbm=lcl&amp;sxsrf=ALeKk01kQWYk0w_D9fPiGj_3gdgVfUdSFQ%3A1619365233879&amp;ei=cY2FYLCnNZWi1fAPjpiBgAY&amp;oq=Dental+surgery+WESTPOINT+DENTAL+CENTRE+contact+number&amp;gs_l=psy-ab.3...31610.31610.0.32723.1.1.0.0.0.0.79.79.1.1.0....0...1.1.64.psy-ab..0.0.0....0.KUDRVd8784g" xr:uid="{18721752-7655-4673-8737-D31D851746F1}"/>
+    <hyperlink ref="C26" r:id="rId16" display="https://www.google.co.uk/search?q=Dental+surgery+OCEAN+DENTAL+contact+number&amp;tbm=lcl&amp;sxsrf=ALeKk03vuqOh01o-ZzALTkXygCFL-krXmw%3A1619365267569&amp;ei=k42FYIeeIqXaxgPi0Z-QBQ&amp;oq=Dental+surgery+OCEAN+DENTAL+contact+number&amp;gs_l=psy-ab.3...17621.17621.0.18397.1.1.0.0.0.0.71.71.1.1.0....0...1.1.64.psy-ab..0.0.0....0.cOtkKlGm6rg" xr:uid="{FE736EEF-7A5D-4D2E-9E0E-7DA3FCCA638D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>